--- a/examples/reports/ru-ru/ProcedureParticipantsReportTemplate.xlsx
+++ b/examples/reports/ru-ru/ProcedureParticipantsReportTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\bidzaar\src\etplight\backend\services\reportgenerator\src\Cognitive.ReportGenerator\Templates\ru-ru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4CDC13-0434-4FD6-A8C5-1AEAF3708C78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D23913-8737-4F5F-81A4-439B41A7CF7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,7 +126,7 @@
     <t>$.FieldTin</t>
   </si>
   <si>
-    <t>Документ сформирован $.Now, время в документе указано в часовом поясе $.Tz</t>
+    <t>Сформировано $.BrandName в $.Now, время в документе указано в часовом поясе $.Tz</t>
   </si>
 </sst>
 </file>
@@ -136,7 +136,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -196,6 +196,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -243,7 +249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -304,6 +310,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -718,7 +727,7 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" ht="15.6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="3"/>
